--- a/biology/Botanique/Hedyotis_biflora/Hedyotis_biflora.xlsx
+++ b/biology/Botanique/Hedyotis_biflora/Hedyotis_biflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedyotis biflora est une espèce de plantes de la famille des Rubiaceae.
-C'est une plante herbacée annuelle ou vivace[1].
+C'est une plante herbacée annuelle ou vivace.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle mesure de 6 à 30 cm de haut avec une tige ramifiée au niveau de sa base et des feuilles ovoïdes opposées mesurant 1 à 3 cm de long. L'inflorescence d'Hedyotis biflora est une corymbe axillaire. Sa corolle est blanche et composée de 4 petits lobes oblongues avec une étamine par pétale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle mesure de 6 à 30 cm de haut avec une tige ramifiée au niveau de sa base et des feuilles ovoïdes opposées mesurant 1 à 3 cm de long. L'inflorescence d'Hedyotis biflora est une corymbe axillaire. Sa corolle est blanche et composée de 4 petits lobes oblongues avec une étamine par pétale.
 Elle produit de très petits fruits renfermant de nombreuses graines noires.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition et environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse dans les friches de l'Asie du Sud-Est, en Chine, en Inde et dans les îles du Pacifique[2]. On la retrouve depuis le niveau de la mer jusqu'à 2 300 m d'altitude, dans des milieux ouverts à semi-ouverts (prairies, marécages) mais aussi dans des milieux sablonneux et des étangs à sec[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les friches de l'Asie du Sud-Est, en Chine, en Inde et dans les îles du Pacifique. On la retrouve depuis le niveau de la mer jusqu'à 2 300 m d'altitude, dans des milieux ouverts à semi-ouverts (prairies, marécages) mais aussi dans des milieux sablonneux et des étangs à sec.
 </t>
         </is>
       </c>
